--- a/svmx/test_lab/test_cases/xss/xss_excelData/xssData.xlsx
+++ b/svmx/test_lab/test_cases/xss/xss_excelData/xssData.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/sahi_pro/userdata/scripts/Sahi_Project_Lightning/svmx/test_lab/test_cases/xss/xss_excelData/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12450" windowHeight="5640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>URL</t>
   </si>
@@ -45,13 +41,127 @@
   </si>
   <si>
     <t>https://svmxc.na40.visual.force.com/apex/PREV_SetupPMPlanTemplate</t>
+  </si>
+  <si>
+    <t>BackOffice</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__SPM_configuration</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__SLAT_ManageSLATerms</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__SFM_TDM_Designer?SVMX_retURL=/apex/SVMXC__CONF_SetupHome</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__SFM_mappings?SVMX_retURL=/apex/SVMXC__CONF_SetupHome</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__SFM_Expressions?SVMX_retURL=/apex/SVMXC__CONF_SetupHome</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__SFM_BusinessRules?SVMX_retURL=/apex/SVMXC__CONF_SetupHome</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/PREV_ViewEditPMPlan</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/PREV_SetupPMPlan?sourceId=a1n460000001eiZ&amp;mode=SC</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/PREV_ManagePMPlans</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/ServiceMaxConsole?SVMX_processId=SCON_CR_ServicePlan&amp;SVMX_retURL=..%2Fa1z</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/ServiceMaxConsole?SVMX_processId=SCON_CR_Service&amp;SVMX_retURL=..%2Fa26</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/ServiceMaxConsole?SVMX_processId=CR_PMPlanTemplate&amp;SVMX_retURL=..%2Fa0Z</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/ServiceMaxConsole?SVMX_processId=SCON_CR_ActivitMaster&amp;SVMX_retURL=..%2Fa00</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__IPRD_ManageCounters</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_TriggerSetting</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/CONF_SetupScheduledSFM?SVMX_Mode=New</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/CONF_SetupPMProcess?SVMX_Mode=New</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_SetupLocations?SVMX_retURL=/apex/SVMXC__CONF_SetupHome</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_QuestionBankManager</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_ManageTranslations</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_ManageSubmodules</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/Conf_SetupShippingProcess?SVMX_Mode=New</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_ManageSettings</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_ManageServiceFlowWizard?SVMX_retURL=/apex/SVMXC__CONF_SetupHome</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_ManageSearchConfiguration?SVMX_retURL=/apex/SVMXC__CONF_SetupHome</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/Conf_SetupSCONBillingProcess?SVMX_Mode=New</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_ManageScheduledSFM?SVMX_retURL=/apex/SVMXC__CONF_SetupHome</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_ManageProfiles</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/CONF_ManagePMProcesses</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_ManageModules</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/CONF_ManageInventoryProcesses</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_ManageDisplayTags</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_ManageActions?SVMX_retURL=/apex/SVMXC__CONF_SetupHome</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_InventoryProcesses</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_FeaturePermission</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__CONF_ApplicationFilters</t>
+  </si>
+  <si>
+    <t>https://na40.salesforce.com/a0a46000000KP4sAAG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,6 +174,14 @@
       <color rgb="FF3933FF"/>
       <name val="Monaco"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,14 +201,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -98,6 +222,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -366,18 +493,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="72.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,27 +512,346 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.5">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="31.5">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="31.5">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="31.5">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="31.5">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="31.5">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="31.5">
+      <c r="A17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="31.5">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="31.5">
+      <c r="A19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="31.5">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="31.5">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="31.5">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="31.5">
+      <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="31.5">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="31.5">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="31.5">
+      <c r="A33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="31.5">
+      <c r="A39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/svmx/test_lab/test_cases/xss/xss_excelData/xssData.xlsx
+++ b/svmx/test_lab/test_cases/xss/xss_excelData/xssData.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/sahi_pro/userdata/scripts/Sahi_Project_Lightning/svmx/test_lab/test_cases/xss/xss_excelData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12450" windowHeight="5640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="19980" windowHeight="13720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>URL</t>
   </si>
@@ -155,13 +159,16 @@
   </si>
   <si>
     <t>https://na40.salesforce.com/a0a46000000KP4sAAG</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/CONF_SetupServiceFlowWizard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -493,18 +500,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,345 +519,353 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="31.5">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="31.5">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="31.5">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="31.5">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="31.5">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="31.5">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="31.5">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="31.5">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="31.5">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="31.5">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="31.5">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="31.5">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="31.5">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="31.5">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="31.5">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="31.5">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="3" t="s">
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="31.5">
-      <c r="A39" s="3" t="s">
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3" t="s">
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3" t="s">
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="3" t="s">
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/svmx/test_lab/test_cases/xss/xss_excelData/xssData.xlsx
+++ b/svmx/test_lab/test_cases/xss/xss_excelData/xssData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\212603667\Box Sync\Back_Office_BackUP_03_July_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/sahi_pro/userdata/scripts/Sahi_Project_Lightning/svmx/test_lab/test_cases/xss/xss_excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12450" windowHeight="5640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$154</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="326">
   <si>
     <t>URL</t>
   </si>
@@ -966,12 +969,51 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>SFMSearchDelivery</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/svmxc__SFMSearchDelivery?&amp;showHeader=true&amp;SVMX_keyWord=&amp;SVMX_SearchId=a1e46000000MQklAAG&amp;SVMX_SearchName=SRCH_ACCT_001</t>
+  </si>
+  <si>
+    <t>SFM Delivery</t>
+  </si>
+  <si>
+    <t>ServiceMaxConsole_debug</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__ServiceMaxConsole_debug?SVMX_recordId=a1y46000000QtuBAAS&amp;SVMX_action=SFM&amp;SVMX_processId=SECSCAN_WO_01&amp;SVMX_retURL=/a1y46000000QtuBAAS&amp;SVMX_NxtStepID=a1e46000000Qa01AAC</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__ServiceMaxConsole_debug?SVMX_recordId=a1y46000000QtuBAAS&amp;SVMX_action=SFM&amp;SVMX_processId=SECSCAN_WO_02&amp;SVMX_retURL=/a1y46000000QtuBAAS</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__ServiceMaxConsole_debug?SVMX_recordId=a0N46000007JEqaEAG&amp;SVMX_action=SFM&amp;SVMX_processId=CREATE_IB_01&amp;SVMX_retURL=/a0N46000007JEqaEAG</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__ServiceMaxConsole_debug?SVMX_recordId=a0N46000007JEqaEAG&amp;SVMX_action=SFM&amp;SVMX_processId=SECSCAN_IB_01&amp;SVMX_retURL=/a0N46000007JEqaEAG</t>
+  </si>
+  <si>
+    <t>ServiceMaxConsole</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__ServiceMaxConsole?SVMX_recordId=a1y46000000QtuBAAS&amp;SVMX_action=SFM&amp;SVMX_processId=SECSCAN_WO_01&amp;SVMX_retURL=/a1y46000000QtuBAAS&amp;SVMX_NxtStepID=a1e46000000Qa01AAC</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__ServiceMaxConsole?SVMX_recordId=a1y46000000QtuBAAS&amp;SVMX_action=SFM&amp;SVMX_processId=SECSCAN_WO_02&amp;SVMX_retURL=/a1y46000000QtuBAAS</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__ServiceMaxConsole?SVMX_recordId=a0N46000007JEqaEAG&amp;SVMX_action=SFM&amp;SVMX_processId=CREATE_IB_01&amp;SVMX_retURL=/a0N46000007JEqaEAG</t>
+  </si>
+  <si>
+    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__ServiceMaxConsole?SVMX_recordId=a0N46000007JEqaEAG&amp;SVMX_action=SFM&amp;SVMX_processId=SECSCAN_IB_01&amp;SVMX_retURL=/a0N46000007JEqaEAG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1340,17 +1382,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155:B163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.1640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
@@ -1849,7 +1891,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>142</v>
       </c>
@@ -1860,7 +1902,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>144</v>
       </c>
@@ -1871,7 +1913,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>146</v>
       </c>
@@ -1882,7 +1924,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>148</v>
       </c>
@@ -1893,7 +1935,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>150</v>
       </c>
@@ -1904,7 +1946,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>152</v>
       </c>
@@ -1915,7 +1957,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>154</v>
       </c>
@@ -1926,7 +1968,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>156</v>
       </c>
@@ -1937,7 +1979,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>158</v>
       </c>
@@ -1948,7 +1990,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>160</v>
       </c>
@@ -1959,7 +2001,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>44</v>
       </c>
@@ -1970,7 +2012,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>163</v>
       </c>
@@ -1981,7 +2023,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>165</v>
       </c>
@@ -1992,7 +2034,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>167</v>
       </c>
@@ -2003,7 +2045,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>169</v>
       </c>
@@ -2014,7 +2056,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>171</v>
       </c>
@@ -2025,7 +2067,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>173</v>
       </c>
@@ -2036,7 +2078,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>175</v>
       </c>
@@ -2047,7 +2089,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>177</v>
       </c>
@@ -2058,7 +2100,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>179</v>
       </c>
@@ -2069,7 +2111,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>181</v>
       </c>
@@ -2080,7 +2122,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>183</v>
       </c>
@@ -2091,7 +2133,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>185</v>
       </c>
@@ -2102,7 +2144,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>187</v>
       </c>
@@ -2113,7 +2155,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>189</v>
       </c>
@@ -2124,7 +2166,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>191</v>
       </c>
@@ -2135,7 +2177,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>193</v>
       </c>
@@ -2146,7 +2188,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>195</v>
       </c>
@@ -2157,7 +2199,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>198</v>
       </c>
@@ -2168,7 +2210,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>200</v>
       </c>
@@ -2179,7 +2221,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>202</v>
       </c>
@@ -2190,7 +2232,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>204</v>
       </c>
@@ -2201,7 +2243,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>206</v>
       </c>
@@ -2212,7 +2254,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>208</v>
       </c>
@@ -2223,7 +2265,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>210</v>
       </c>
@@ -2234,7 +2276,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>212</v>
       </c>
@@ -2245,7 +2287,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>45</v>
       </c>
@@ -2256,7 +2298,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>46</v>
       </c>
@@ -2267,7 +2309,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>47</v>
       </c>
@@ -2278,7 +2320,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>48</v>
       </c>
@@ -2289,7 +2331,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>218</v>
       </c>
@@ -2300,7 +2342,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>220</v>
       </c>
@@ -2311,7 +2353,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>222</v>
       </c>
@@ -2322,7 +2364,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>224</v>
       </c>
@@ -2333,7 +2375,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>226</v>
       </c>
@@ -2344,7 +2386,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>228</v>
       </c>
@@ -2355,7 +2397,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>230</v>
       </c>
@@ -2366,7 +2408,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>232</v>
       </c>
@@ -2377,7 +2419,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>234</v>
       </c>
@@ -2388,7 +2430,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>236</v>
       </c>
@@ -2399,7 +2441,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>238</v>
       </c>
@@ -2410,7 +2452,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>240</v>
       </c>
@@ -2421,7 +2463,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>242</v>
       </c>
@@ -2432,7 +2474,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>244</v>
       </c>
@@ -2443,7 +2485,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>246</v>
       </c>
@@ -2454,7 +2496,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>248</v>
       </c>
@@ -2465,7 +2507,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>250</v>
       </c>
@@ -2476,7 +2518,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>252</v>
       </c>
@@ -2487,7 +2529,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>254</v>
       </c>
@@ -2498,7 +2540,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>256</v>
       </c>
@@ -2509,7 +2551,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>258</v>
       </c>
@@ -2520,7 +2562,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>260</v>
       </c>
@@ -2531,7 +2573,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>262</v>
       </c>
@@ -2542,7 +2584,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>264</v>
       </c>
@@ -2553,7 +2595,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>266</v>
       </c>
@@ -2564,7 +2606,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>268</v>
       </c>
@@ -2575,7 +2617,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>270</v>
       </c>
@@ -2586,7 +2628,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>272</v>
       </c>
@@ -2597,7 +2639,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>274</v>
       </c>
@@ -2608,7 +2650,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>276</v>
       </c>
@@ -2619,7 +2661,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>278</v>
       </c>
@@ -2630,7 +2672,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>280</v>
       </c>
@@ -2641,7 +2683,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>282</v>
       </c>
@@ -2652,7 +2694,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>284</v>
       </c>
@@ -2663,7 +2705,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>286</v>
       </c>
@@ -2674,7 +2716,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>234</v>
       </c>
@@ -2685,7 +2727,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>289</v>
       </c>
@@ -2696,7 +2738,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>291</v>
       </c>
@@ -2707,7 +2749,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>293</v>
       </c>
@@ -2718,7 +2760,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>295</v>
       </c>
@@ -2729,7 +2771,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>11</v>
       </c>
@@ -2740,7 +2782,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>2</v>
       </c>
@@ -2751,7 +2793,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>13</v>
       </c>
@@ -2762,7 +2804,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>14</v>
       </c>
@@ -2773,7 +2815,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>3</v>
       </c>
@@ -2784,7 +2826,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>4</v>
       </c>
@@ -2795,7 +2837,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>15</v>
       </c>
@@ -2806,7 +2848,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>16</v>
       </c>
@@ -2817,7 +2859,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>17</v>
       </c>
@@ -2828,7 +2870,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>5</v>
       </c>
@@ -2839,7 +2881,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>18</v>
       </c>
@@ -2850,7 +2892,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>6</v>
       </c>
@@ -2861,7 +2903,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>7</v>
       </c>
@@ -2872,7 +2914,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>19</v>
       </c>
@@ -2883,7 +2925,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>8</v>
       </c>
@@ -2894,7 +2936,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>20</v>
       </c>
@@ -2905,7 +2947,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>21</v>
       </c>
@@ -2916,7 +2958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>9</v>
       </c>
@@ -2927,7 +2969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>22</v>
       </c>
@@ -2938,7 +2980,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>23</v>
       </c>
@@ -2949,7 +2991,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>24</v>
       </c>
@@ -2960,7 +3002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>25</v>
       </c>
@@ -2971,7 +3013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>26</v>
       </c>
@@ -2982,7 +3024,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>27</v>
       </c>
@@ -2993,7 +3035,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>28</v>
       </c>
@@ -3004,7 +3046,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>29</v>
       </c>
@@ -3015,7 +3057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>30</v>
       </c>
@@ -3026,7 +3068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>31</v>
       </c>
@@ -3037,7 +3079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>10</v>
       </c>
@@ -3046,6 +3088,105 @@
       </c>
       <c r="C154" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>314</v>
+      </c>
+      <c r="B155" t="s">
+        <v>313</v>
+      </c>
+      <c r="C155" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>317</v>
+      </c>
+      <c r="B156" t="s">
+        <v>316</v>
+      </c>
+      <c r="C156" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>318</v>
+      </c>
+      <c r="B157" t="s">
+        <v>316</v>
+      </c>
+      <c r="C157" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>319</v>
+      </c>
+      <c r="B158" t="s">
+        <v>316</v>
+      </c>
+      <c r="C158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>320</v>
+      </c>
+      <c r="B159" t="s">
+        <v>316</v>
+      </c>
+      <c r="C159" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>322</v>
+      </c>
+      <c r="B160" t="s">
+        <v>321</v>
+      </c>
+      <c r="C160" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>323</v>
+      </c>
+      <c r="B161" t="s">
+        <v>321</v>
+      </c>
+      <c r="C161" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>324</v>
+      </c>
+      <c r="B162" t="s">
+        <v>321</v>
+      </c>
+      <c r="C162" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>325</v>
+      </c>
+      <c r="B163" t="s">
+        <v>321</v>
+      </c>
+      <c r="C163" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/svmx/test_lab/test_cases/xss/xss_excelData/xssData.xlsx
+++ b/svmx/test_lab/test_cases/xss/xss_excelData/xssData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="321">
   <si>
     <t>URL</t>
   </si>
@@ -978,21 +978,6 @@
   </si>
   <si>
     <t>SFM Delivery</t>
-  </si>
-  <si>
-    <t>ServiceMaxConsole_debug</t>
-  </si>
-  <si>
-    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__ServiceMaxConsole_debug?SVMX_recordId=a1y46000000QtuBAAS&amp;SVMX_action=SFM&amp;SVMX_processId=SECSCAN_WO_01&amp;SVMX_retURL=/a1y46000000QtuBAAS&amp;SVMX_NxtStepID=a1e46000000Qa01AAC</t>
-  </si>
-  <si>
-    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__ServiceMaxConsole_debug?SVMX_recordId=a1y46000000QtuBAAS&amp;SVMX_action=SFM&amp;SVMX_processId=SECSCAN_WO_02&amp;SVMX_retURL=/a1y46000000QtuBAAS</t>
-  </si>
-  <si>
-    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__ServiceMaxConsole_debug?SVMX_recordId=a0N46000007JEqaEAG&amp;SVMX_action=SFM&amp;SVMX_processId=CREATE_IB_01&amp;SVMX_retURL=/a0N46000007JEqaEAG</t>
-  </si>
-  <si>
-    <t>https://svmxc.na40.visual.force.com/apex/SVMXC__ServiceMaxConsole_debug?SVMX_recordId=a0N46000007JEqaEAG&amp;SVMX_action=SFM&amp;SVMX_processId=SECSCAN_IB_01&amp;SVMX_retURL=/a0N46000007JEqaEAG</t>
   </si>
   <si>
     <t>ServiceMaxConsole</t>
@@ -1382,15 +1367,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155:B163"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="C159" sqref="A156:XFD159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="183" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.1640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="11" style="1"/>
@@ -3142,50 +3127,6 @@
         <v>316</v>
       </c>
       <c r="C159" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>322</v>
-      </c>
-      <c r="B160" t="s">
-        <v>321</v>
-      </c>
-      <c r="C160" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>323</v>
-      </c>
-      <c r="B161" t="s">
-        <v>321</v>
-      </c>
-      <c r="C161" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>324</v>
-      </c>
-      <c r="B162" t="s">
-        <v>321</v>
-      </c>
-      <c r="C162" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>325</v>
-      </c>
-      <c r="B163" t="s">
-        <v>321</v>
-      </c>
-      <c r="C163" t="s">
         <v>315</v>
       </c>
     </row>
